--- a/public/templates/批量导入考试计划数据模板.xlsx
+++ b/public/templates/批量导入考试计划数据模板.xlsx
@@ -760,22 +760,22 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1276,7 +1276,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A3:F5 A1:F1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1 A3:F4 A5:C5 E5:F5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/templates/批量导入考试计划数据模板.xlsx
+++ b/public/templates/批量导入考试计划数据模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>批量导入考试计划模板</t>
   </si>
@@ -36,9 +36,8 @@
   </si>
   <si>
     <t>1. 请严格遵循模板示例格式填写数据，字段格式错误将直接导致导入失败；
-2. 考试项目代码需与系统“考试项目管理”模块的备案代码完全一致，未知代码可通过“下载考试项目数据”功能获取参考；
-3. 多考场编号需用英文半角逗号分隔（示例：“1,2,3”），且考场需提前在系统完成添加，考场编号可通过“下载考试项目数据”功能获取参考；
-4. 导入模板结构不建议修改，需新增的数据请从第6行（表头为第4行）开始填写，避免因格式破坏导致导入失败。</t>
+2. 考试项目代码需与系统“考试项目管理”模块的代码完全一致，未知代码可通过“下载考试项目数据”功能获取参考；
+3. 导入模板结构不建议修改，需新增的数据请从第6行（表头为第4行）开始填写，避免因格式破坏导致导入失败。</t>
   </si>
   <si>
     <t>计划名称</t>
@@ -47,16 +46,10 @@
     <t>考试项目代码</t>
   </si>
   <si>
-    <t>考试考场编号</t>
+    <t>考试日期</t>
   </si>
   <si>
-    <t>报名开始时间</t>
-  </si>
-  <si>
-    <t>报名结束时间</t>
-  </si>
-  <si>
-    <t>考试开始时间</t>
+    <t>考试人数上限</t>
   </si>
   <si>
     <t>导入测试用例（例：2025年11月计算机考试）</t>
@@ -65,16 +58,7 @@
     <t>YALIRONGQI-YANGCANG-PROJECT（例：需与系统项目代码一致）</t>
   </si>
   <si>
-    <t>1,2,3（例：多考场用英文逗号分隔，如"5,6,7"）</t>
-  </si>
-  <si>
-    <t>2025-10-01 08:00（例：格式需为"YYYY-MM-DD HH:MM"）</t>
-  </si>
-  <si>
-    <t>2025-10-09 08:00（例：需早于考试开始时间）</t>
-  </si>
-  <si>
-    <t>2025-11-11 08:00（例：格式需为"YYYY-MM-DD HH:MM"）</t>
+    <t>2025-10-01（例：格式需为"YYYY-MM-DD"）</t>
   </si>
 </sst>
 </file>
@@ -1161,24 +1145,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="33.8285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.8285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.8285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.8285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.8285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.8285714285714" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.2857142857143" style="1"/>
+    <col min="2" max="3" width="50.8285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.8285714285714" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:6">
+    <row r="1" ht="45" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1191,24 +1172,16 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" ht="77" customHeight="1" spans="1:6">
+    <row r="2" ht="77" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1221,14 +1194,8 @@
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" ht="40" customHeight="1" spans="1:6">
+    <row r="4" ht="40" customHeight="1" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1241,42 +1208,30 @@
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="1:4">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" ht="60" customHeight="1" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
+      <c r="D5" s="6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1 A3:F4 A5:C5 E5:F5" numberStoredAsText="1"/>
+    <ignoredError sqref="A5 A3:B4 C3:D3 A1:D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>